--- a/data/case1/2/Qlm1_1.xlsx
+++ b/data/case1/2/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.092453242651153289</v>
+        <v>-0.098496255502688257</v>
       </c>
       <c r="B1" s="0">
-        <v>0.091822451437231223</v>
+        <v>0.097929077590997338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.086517518058307097</v>
+        <v>-0.093923491779793089</v>
       </c>
       <c r="B2" s="0">
-        <v>0.085223492749047836</v>
+        <v>0.092205450574845749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.035507080839302319</v>
+        <v>-0.042487790692558036</v>
       </c>
       <c r="B3" s="0">
-        <v>0.035157186673233198</v>
+        <v>0.04193823799669083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.027157186721899151</v>
+        <v>-0.033938238069376681</v>
       </c>
       <c r="B4" s="0">
-        <v>0.026847450605417933</v>
+        <v>0.033434940098029386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.023847450627611622</v>
+        <v>-0.10389083134818655</v>
       </c>
       <c r="B5" s="0">
-        <v>0.022806713568941817</v>
+        <v>0.10232372398964262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.010151143831148346</v>
+        <v>-0.030176402110983602</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0099759836075161701</v>
+        <v>0.029964315210857961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.4016331367615606e-05</v>
+        <v>-0.019964315313299341</v>
       </c>
       <c r="B7" s="0">
-        <v>-5.4687580604895203e-05</v>
+        <v>0.019926722466551805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.010054687519687633</v>
+        <v>-0.0099267225707975193</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.01008900153144543</v>
+        <v>0.0098917107356921719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.01208900151550818</v>
+        <v>-0.0078917107769838069</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.01211280868887199</v>
+        <v>0.007871527251217092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.014112808674582311</v>
+        <v>-0.0058715272928768769</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.01411286603178219</v>
+        <v>0.0058719351127187736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.017112866012214845</v>
+        <v>-0.0028719351622994438</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.017115207942235422</v>
+        <v>0.002872050127084691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.020615207920382961</v>
+        <v>0.00062794981941571848</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.020648352879529597</v>
+        <v>-0.00062842133048413018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.024148352861161015</v>
+        <v>0.0041284212779713059</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.024176577424253054</v>
+        <v>-0.0041295992679906135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.032176577382837301</v>
+        <v>0.012129599180430439</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.032221542198603181</v>
+        <v>-0.012143306309416069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080516626563023053</v>
+        <v>-0.0080527408662920408</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080336453576874689</v>
+        <v>0.0080344048346532304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060336453649991739</v>
+        <v>-0.0060344048739273681</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034087847316009</v>
+        <v>0.0060032971544727864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034087925491235</v>
+        <v>-0.0040032971944752305</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999811417553</v>
+        <v>0.003999999943889776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.013087032868956072</v>
+        <v>0.0019944141401460058</v>
       </c>
       <c r="B18" s="0">
-        <v>0.012981720328152591</v>
+        <v>-0.0020955544658676217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.011697483185972857</v>
+        <v>0.0060955544331360301</v>
       </c>
       <c r="B19" s="0">
-        <v>0.011603338319598144</v>
+        <v>-0.0068573996939491622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080168003523670706</v>
+        <v>-0.0080164205879285078</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057217169020589</v>
+        <v>0.0080056618998138873</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057217413078661</v>
+        <v>-0.0040056619320285591</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999753845827</v>
+        <v>0.0039999999675472964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04571641193576248</v>
+        <v>-0.045717659921403531</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501812992947421</v>
+        <v>0.045502885279071315</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501813026152078</v>
+        <v>-0.040502885328978167</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099573064433791</v>
+        <v>0.040099700655471082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099573182603692</v>
+        <v>-0.020099700829511846</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999880190522</v>
+        <v>0.019999999823443027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01065556975567894</v>
+        <v>-0.070147321917545469</v>
       </c>
       <c r="B25" s="0">
-        <v>0.010616268834521492</v>
+        <v>0.070072385418789906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.008116268855244968</v>
+        <v>-0.067572385463314788</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0080690307944468742</v>
+        <v>0.067477686337277021</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.00556903081530713</v>
+        <v>-0.06497768638408985</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0053082744738368604</v>
+        <v>0.064428131689877599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0033082744923902396</v>
+        <v>-0.062428131743774706</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0031482709445072032</v>
+        <v>0.06206503970394639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0038517290095976264</v>
+        <v>-0.055065039805262117</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0038884352027350744</v>
+        <v>0.054970025096444886</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.063888434868866195</v>
+        <v>-0.021173286696217986</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.064199449616303195</v>
+        <v>0.021022839244708713</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.071199449576832663</v>
+        <v>-0.014022839353495797</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.071324967668713768</v>
+        <v>0.014000955231583845</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040012301828529218</v>
+        <v>-0.0040009553647237794</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999788715712</v>
+        <v>0.0039999999145337028</v>
       </c>
     </row>
   </sheetData>
